--- a/SAH.xlsx
+++ b/SAH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/QnAdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAAA2C5-D4CB-1947-898E-AE2C08728D6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D4145-181E-9C41-80D8-F72742FC4ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kb-Exported-Content" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>Question</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>If you would like to know more about COVID-19, or feel that you have some symptoms, please call your local [SA Aboriginal Community Controlled Health Service (PDF 696KB)](https://ahcsa.org.au/app/uploads/2020/04/SA-Aboriginal-Community-Controlled-Health-Services-testing-for-COVID-19.pdf).</t>
+  </si>
+  <si>
+    <t>How much does the vaccines cost?</t>
+  </si>
+  <si>
+    <t>Do I need to Pay for vaccines?</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1048576"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -1622,233 +1628,249 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>138</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>139</v>
       </c>
     </row>

--- a/SAH.xlsx
+++ b/SAH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/QnAdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D4145-181E-9C41-80D8-F72742FC4ECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27886B-F93E-3C44-9966-29C0EBEC3262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25660" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kb-Exported-Content" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Question</t>
   </si>
@@ -31,213 +31,21 @@
     <t>How do the COVID-19 vaccines work?</t>
   </si>
   <si>
-    <t>The COVID-19 vaccines work by preparing the body to defend itself against COVID-19.\n\nWhen a person is given the Pfizer/BioNTech COVID-19 vaccine, some of their cells will read the vaccine’s mRNA instructions and temporarily produce the spike protein, which mimics the COVID-19 virus. The person’s immune system will then recognise this protein as foreign and produce antibodies and activate T cells (white blood cells) to attack it.\n\nWhen a person is given the AstraZeneca COVID-19 vaccine, some of their cells will be “infected” by a dead adenovirus (common cold) carrying the DNA for the spike protein, which mimics the COVID-19 virus. The person’s immune system will then recognise this protein as foreign and produce antibodies and activate T cells (white blood cells) to attack it.\n\nOnce vaccinated, if a person comes into contact with COVID-19, their immune system will recognise it and be ready to defend the body against it having already been exposed to the vaccine.\n\nAs a result, you will be less likely to have severe COVID-19 symptoms after a vaccination.</t>
-  </si>
-  <si>
-    <t>How do the COVID-19 vaccines protect me?</t>
-  </si>
-  <si>
-    <t>The goal of vaccination is to stop you from getting sick.\n\nThe COVID-19 vaccines train your immune system to recognise COVID-19. They have been designed to help you fight off COVID-19 before it makes you sick, and to reduce the severity of your symptoms if you do get sick.\n\nMost vaccines work in this way. This is why it’s so important that everyone gets vaccinated.\n\nDuring clinical trials of the COVID-19 vaccines, research focussed on whether the vaccines helped produce enough antibodies to stop us from getting sick. The ones that did this safely and effectively have been approved for use.\n\nNow that the vaccines are being rolled out world-wide, early research suggests they may also be able to reduce how infectious we are if we do catch COVID-19, which could help stop or reduce the spread of the virus.\n\nIt is very important that we continue practising good hygiene, using the COVID Safe Check In, physical distancing, and getting tested and staying home if you are unwell, especially during the roll out of the vaccination program.</t>
-  </si>
-  <si>
-    <t>What’s in the COVID-19 vaccines?</t>
-  </si>
-  <si>
-    <t>Vaccine ingredients vary depending on what the vaccine is for. Generally, vaccines may contain some of the following ingredients:\n\n*   a protein component of a virus\n\n*   a piece of genetic code (DNA or mRNA)\n\n*   a very small dose of a weakened virus\n\n*   a substance to boost the immune response (an adjuvant)\n\n*   a small amount of preservative\n\n*   sterile salt water (saline) for injections\n\nIngredients for the COVID-19 vaccines approved for use in Australia will be listed in the [Australian Register of Therapeutic Goods](https://www.tga.gov.au/australian-register-therapeutic-goods).</t>
-  </si>
-  <si>
-    <t>Do the vaccines contain any animal products?</t>
-  </si>
-  <si>
-    <t>The approved COVID-19 vaccines do not contain any animal products or egg.</t>
-  </si>
-  <si>
     <t>Can the vaccine give me COVID-19?</t>
   </si>
   <si>
-    <t>No, the COVID-19 vaccines available do not use the live or whole virus that causes COVID-19.</t>
-  </si>
-  <si>
-    <t>If I catch COVID-19 after I have the vaccine, can I pass the infection onto others?</t>
-  </si>
-  <si>
-    <t>Early research indicates that the vaccines may be able to reduce how infectious we are if we do catch COVID-19. The Therapeutic Goods Administration (TGA) will continue to monitor the ongoing research to understand whether the vaccines can stop a person passing the virus onto another person. \n\nThis is why it’s important that even if you have been vaccinated, you should continue practising good hygiene, using the COVID Safe Check-In, physical distancing, and getting tested and staying home if you are unwell.</t>
-  </si>
-  <si>
-    <t>Do I still need to practice hand hygiene and physical distancing even if I've been vaccinated?</t>
-  </si>
-  <si>
-    <t>It is very important that we continue practising good hygiene, using the COVID Safe Check-In, physical distancing, and getting tested and staying home if you are unwell, especially during the roll out of the vaccine program, which will take several months.\n\nAustralia will still need to have the flexible strategies already in place to control COVID-19. If the vaccine program is effective and results in a high proportion of people being vaccinated, it is hoped that we will be able to reduce some of these control measures. This is likely to be a slow process and will rely on many people being willing to have the vaccine.</t>
-  </si>
-  <si>
-    <t>How long does the vaccine protect me from getting COVID-19?</t>
-  </si>
-  <si>
-    <t>Clinical trials have shown that the COVID-19 vaccines protect against COVID-19 symptoms and severe disease after a person receives two doses. At this stage, there is not enough information to understand the long term protection against COVID-19 after vaccination. Booster doses may be required, similar to other vaccinations, such as the flu vaccine. \n\nThe Therapeutic Goods Administration (TGA) will continue to monitor the ongoing research to understand how the vaccines work over time. This is why it’s important that even if you have been vaccinated, you should continue practising good hygiene, using the COVID Safe Check-In, physical distancing, and getting tested and staying home if you are unwell.</t>
-  </si>
-  <si>
     <t>Are there any side effects?</t>
   </si>
   <si>
-    <t>Vaccines, like any other medication or natural therapy, can have reactions or side effects. The extent and severity of side effects of the COVID-19 vaccines are similar to those from other vaccines. As part of regulatory assessment of all vaccines, the Therapeutic Goods Administration (TGA) considers information about possible side effects. For a vaccine to be registered for use in Australia, the benefits must outweigh the risks.\n\nYou may experience minor reactions or side effects following vaccination. Most reactions or side effects last no more than a couple of days and do not require special treatment. Serious reactions like allergic reactions are extremely rare.\n\nVaccines are monitored for a long time and even after a vaccine is given, it is still monitored for safety. Healthcare professionals contribute to ongoing monitoring by informing the TGA of any side effects, even if they are very minor. This means the TGA can oversee the safety of a vaccine across the country and, in the unlikely event that there is a safety risk, inform healthcare providers, the community and the Government as soon as possible.\n\nCommon reactions to the COVID-19 vaccine include: \n\n*   tenderness, pain and swelling at the injection site\n\n*   tiredness\n\n*   headache\n\n*   muscle and joint pain\n\n*   chills\n\n*   fever. \n\nSome people may also experience redness at the injection site, nausea, itching at the injection site, pain in the limb, enlarged lymph nodes, difficulty sleeping or generally feel unwell.</t>
-  </si>
-  <si>
-    <t>Why do vaccines cause reactions or side effects?</t>
-  </si>
-  <si>
-    <t>Reactions or side effects, such as fever and tiredness, from vaccines are often a really good sign that your immune system has been activated and is learning how to fight the disease you’ve been vaccinated against.</t>
-  </si>
-  <si>
-    <t>Do the COVID-19 vaccines work on new variants?</t>
-  </si>
-  <si>
-    <t>It is anticipated that the COVID-19 vaccines will be effective against the newer strains of COVID-19.\n\nThis is because the vaccines work by inducing what is known as a "polyclonal" response – a collection of immunological responses to many different parts of the COVID-19 "spike" protein. In the new variants, only a limited part of the spike protein is changed, and much is unchanged, so the vaccines should still work against the main, unchanged parts to the COVID-19 spike protein.\n\nThe Australian Government will continue to closely monitor developments and do their own genetic examination of any local cases.\n\n##  More information\n\nPlease keep Triple Zero [(000)](tel:000) for [emergencies](https://www.sahealth.sa.gov.au/emergencydepartments) only.\n\n*   Find out information on [COVID-19 Vaccinations](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/vaccine/covid-19+vaccinations) \n\n*   For information in languages other than English, see our [Translated Resources page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/translated+covid-19+resources/translated+covid-19+resources)\n\n*   Read our [help and advice page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/help+and+advice) for support options\n\n*   Check out our [COVID-19 frequently asked questions](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/frequently+asked+questions/covid-19+frequently+asked+questions)\n\n*   Ask [Zoe, our COVID-19 virtual assistant](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/zoe+our+covid-19+virtual+assistant)\n\n*   Visit the [SA Government COVID-19 website](https://www.covid-19.sa.gov.au/)\n\n*   Call the SA COVID-19 Information Line on [1800 253 787](tel:1800253787) 9.00 am to 5.00 pm, 7 days\n\n*   Call the SA COVID-19 Mental Health Support Line on [1800 632 753](tel:1800632753) 8.00 am to 8.00 pm 7 days or visit the [Mental health support page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/mental+health+support).</t>
-  </si>
-  <si>
-    <t>What is COVID-19?</t>
-  </si>
-  <si>
-    <t>COVID-19 is the name of the disease caused by a new coronavirus that originated in Hubei Province, China.\n\nCoronavirus disease (COVID-19) is a respiratory illness caused by a new virus. The virus can spread from person to person.\n\nCoronaviruses are a large family of viruses that can cause respiratory infections. This can range from the common cold to more serious diseases such as Severe Acute Respiratory Syndrome (SARS) and Middle East Respiratory Syndrome (MERS).</t>
-  </si>
-  <si>
-    <t>What is Coronavirus disease 2019 (COVID-19)?</t>
-  </si>
-  <si>
-    <t>Coronavirus disease (COVID-19) is a respiratory illness caused by a new virus. The virus can spread from person to person.</t>
-  </si>
-  <si>
-    <t>What are the symptoms of COVID-19?</t>
-  </si>
-  <si>
-    <t>As with other respiratory illnesses, some people infected with COVID-19 may experience mild symptoms and will recover easily, and others may become very ill and need urgent medical care.\n\nCOVID-19 can cause mild symptoms but for some people, it can be more severe and can lead to pneumonia or breathing difficulties and can even be fatal.\n\nSymptoms can include:\n\n*   fever OR chills (with no alternative illness that explains these symptoms)\n\n*   cough\n\n*   sore throat\n\n*   runny nose\n\n*   shortness of breath\n\n*   loss of taste or smell\n\n*   diarrhoea and vomiting\n\nCall [000](tel:000) (Triple Zero) in an emergency, such as difficulty breathing or chest pain.</t>
-  </si>
-  <si>
-    <t>What causes COVID-19?</t>
-  </si>
-  <si>
-    <t>COVID-19 is the name of the disease caused by the virus SARS-CoV-2, a new coronavirus.\n\nCoronaviruses are a large family of viruses that can cause respiratory infections. This can range from the common cold to more serious diseases such as Severe Acute Respiratory Syndrome (SARS) and Middle East Respiratory Syndrome (MERS).</t>
-  </si>
-  <si>
-    <t>How is COVID-19 spread?</t>
-  </si>
-  <si>
-    <t>COVID-19 is mostly likely spread through:\n\n*   direct close contact with a person while they are infectious (usually face to face contact for at least 15 minutes; or being in the same closed space for at least 2 hours)\n\n*   contact with droplets from an infected person’s cough or sneeze.\n\nCOVID-19 may also spread through touching objects or surfaces like doorknobs or tables, mobile phones, stair rails, elevator buttons that have droplets from a cough or sneeze of an infected person, and then touching your mouth, nose, eyes or face.</t>
-  </si>
-  <si>
-    <t>Who is most at risk?</t>
-  </si>
-  <si>
-    <t>People of all ages can be infected by COVID-19.\n\nHowever, older people and those with pre-existing medical conditions such as asthma, diabetes, heart disease, or people with a weakened immune system are more vulnerable to becoming severely ill with the virus.\n\nMake sure any chronic conditions are managed or under control so you are as healthy as possible. Talk to your GP about how you can do this.</t>
-  </si>
-  <si>
-    <t>How can I prevent COVID-19?</t>
-  </si>
-  <si>
-    <t>You can take steps to protect yourself from COVID-19. For example, by:\n\n*   practicing [physical distancing](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/protecting+yourself+and+others+from+covid-19/what+is+social+physical+distancing)\n\n*   staying away from people who have respiratory infections\n\n*   practicing good [hand hygiene](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/healthy+living/protecting+your+health/preventing+disease+and+infection/hand+hygiene/hand+hygiene)\n\n*   covering coughs and sneezes and wiping down surfaces. \n\n Find out more on how to prevent COVID-19 on our [protecting yourself and others from COVID-19 page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/protecting+yourself+and+others+from+covid-19/protecting+yourself+and+others+from+covid-19).\n\n##  More information\n\nPlease keep Triple Zero [(000)](tel:000) for [emergencies](https://www.sahealth.sa.gov.au/emergencydepartments) only.\n\n*   Find out information on [COVID-19 Vaccinations](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/vaccine/covid-19+vaccinations) \n\n*   For information in languages other than English, see our [Translated Resources page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/translated+covid-19+resources/translated+covid-19+resources)\n\n*   Read our [help and advice page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/help+and+advice) for support options\n\n*   Check out our [COVID-19 frequently asked questions](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/frequently+asked+questions/covid-19+frequently+asked+questions)\n\n*   Ask [Zoe, our COVID-19 virtual assistant](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/zoe+our+covid-19+virtual+assistant)\n\n*   Visit the [SA Government COVID-19 website](https://www.covid-19.sa.gov.au/)\n\n*   Call the SA COVID-19 Information Line on [1800 253 787](tel:1800253787) 9.00 am to 5.00 pm, 7 days\n\n*   Call the SA COVID-19 Mental Health Support Line on [1800 632 753](tel:1800632753) 8.00 am to 8.00 pm 7 days or visit the [Mental health support page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/mental+health+support).</t>
-  </si>
-  <si>
     <t>Who will get the COVID-19 vaccine?</t>
   </si>
   <si>
-    <t>The COVID-19 vaccine is being rolled out in phases across South Australia to ensure priority groups can access the vaccine. \n\nThe phases are as follows:\n\n### Phase 1a\n\n*   Frontline at-risk health care workers including staff in GP respiratory clinics and COVID-19 testing facilities, ambulance staff, paramedics, ICU and emergency department staff and clinical and ancillary support staff\n\n*   Residential aged care and disability care staff\n\n*   Residential aged care and disability care residents\n\n*   Quarantine and airport workers\n\n### Phase 1b\n\n*   Adults over 70 years\n\n*   All other health care workers\n\n*   Begin to vaccinate Aboriginal and Torres Strait Islander people\n\n*   Adults with an underlying medical condition, including those with a disability\n\n*   Critical and high risk workers including defence, police, fire, emergency services and meat processing\n\n### Phase 2a\n\n*   Adults over 50 years\n\n*   Continue vaccinating Aboriginal and Torres Strait Islander people\n\n*   Other critical and high risk workers.\n\n### Phase 2b\n\n*   Balance of adult population\n\n*   Catch up any unvaccinated Australians from previous phases.\n\n### Phase 3\n\n*   Consideration of people under 16 years, based on further Therapeutic Goods Administration (TGA) approvals and the Australian Technical Advisory Group on Immunisation (ATAGI) advice.</t>
-  </si>
-  <si>
-    <t>I don’t have a Medicare card, can I still get a COVID-19 vaccine?</t>
-  </si>
-  <si>
     <t>It’s really important that as many people get vaccinated as possible. The COVID-19 vaccinations will be free to everyone living in Australia, including refugees, asylum seekers, temporary protection visa holders, and those on bridging visas. People currently residing in detention facilities will also be eligible, including those whose visas have been cancelled.</t>
   </si>
   <si>
-    <t>I work in a high risk area (priority 1a) but don’t want to get the vaccine, will this affect my job?</t>
-  </si>
-  <si>
-    <t>It’s important that people working in high risk areas are given access to the vaccine as early as possible, which is why you’ve been included in Phase 1a of the national roll out.\n\nYour occupational risk of exposure to COVID-19 should be considered when discussing your role and responsibility with your employer. Individual employers may consider company policies regarding the COVID-19 vaccine that consider occupational health and safety risks. \n\nThe vaccine is not mandated by the Australian or State Governments.</t>
-  </si>
-  <si>
-    <t>Is the vaccine safe for older people?</t>
-  </si>
-  <si>
-    <t>The Australian Technical Advisory Group on Immunisation (ATAGI) has stated that older adults should be prioritised for COVID-19 vaccination, and that both vaccines approved for use in Australia are suitable for vaccinating people within all phases of Australia's COVID-19 vaccination program.\n\nIn rare instances additional evaluation may be indicated of the appropriateness of vaccination in very frail individuals with severe pre-existing conditions or at the end of life.\n\nPatients and/or their families, representatives and carers can talk to their GP or a health professional about the COVID-19 vaccines.</t>
-  </si>
-  <si>
-    <t>Can I get the COVID-19 vaccine if I am pregnant or breastfeeding?</t>
-  </si>
-  <si>
-    <t>Clinical trials for new medicines do not typically include pregnant or breastfeeding participants.\n\nIf you are planning a pregnancy, you can receive the COVID-19 vaccine. You do not need to avoid becoming pregnant before or after vaccination. You are not required to have a pregnancy test before getting vaccinated.\n\nIf you are breastfeeding, you can receive the COVID-19 vaccine at any time. You do not need to stop breastfeeding before or after vaccination.\n\nCurrently in Australia we are not routinely recommending COVID-19 vaccination for pregnant women. You and your health professional should consider whether the potential benefits of vaccination outweigh any potential risks.\n\nFurther international data regarding this issue is expected to be available soon.</t>
-  </si>
-  <si>
-    <t>I am immunocompromised. Should I have the vaccine?</t>
-  </si>
-  <si>
-    <t>Immunocompromised people are being prioritised to receive a COVID-19 vaccine in Phase 1b of the roll out, as they are at increased risk of severe outcomes with COVID-19.\n\nNone of the COVID-19 vaccines that have been approved, or are currently being considered for approval, in Australia contain the live COVID-19 virus, which means they are safe for immunocompromised people.\n\nImmunocompromised people should follow the advice from their doctor regarding the COVID-19 vaccine, including considering when to get the vaccine amongst any other treatments or medications.</t>
-  </si>
-  <si>
-    <t>Will other family members of immune-compromised children be included in a priority group?</t>
-  </si>
-  <si>
-    <t>In the first phase of the roll out, only those people who have been listed in the priority groups will receive the vaccine. The vaccine will be available to other people in later stages of the roll out.</t>
-  </si>
-  <si>
-    <t>Can children get the vaccine?</t>
-  </si>
-  <si>
-    <t>Clinical trials for new medicines do not typically include children as participants. Further clinical trials for other COVID-19 vaccines will include children.\n\nThe Australian Technical Advisory Group on Immunisation (ATAGI) will continue to provide advice in relation to children.\n\nThe Therapeutic Goods Administration (TGA) have currently approved the Pfizer/BioNTech COVID-19 vaccine for use in individuals aged 16 years and over, and the AstraZeneca COVID-19 vaccine for use in individuals aged 18 years and over.</t>
-  </si>
-  <si>
-    <t>I’ve already had COVID-19. Do I need to get vaccinated?</t>
-  </si>
-  <si>
-    <t>You should be vaccinated regardless of whether you already had COVID-19 infection, due to the severe health risks and as reinfection with COVID-19 is possible. Experts do not yet know how long someone is protected from getting sick again after recovering from COVID-19. The natural immunity developed by people who have had COVID-19 varies.\n\nAs long as you are feeling well, and no longer have confirmed infection it is recommended to still receive COVID-19 vaccines.\n\nThere is no known disadvantage to having the COVID-19 vaccine when previously exposed or infected with COVID-19.\n\n##  More information\n\nPlease keep Triple Zero [(000)](tel:000) for [emergencies](https://www.sahealth.sa.gov.au/emergencydepartments) only.\n\n*   Find out information on [COVID-19 Vaccinations](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/vaccine/covid-19+vaccinations) \n\n*   For information in languages other than English, see our [Translated Resources page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/translated+covid-19+resources/translated+covid-19+resources)\n\n*   Read our [help and advice page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/help+and+advice) for support options\n\n*   Check out our [COVID-19 frequently asked questions](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/frequently+asked+questions/covid-19+frequently+asked+questions)\n\n*   Ask [Zoe, our COVID-19 virtual assistant](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/zoe+our+covid-19+virtual+assistant)\n\n*   Visit the [SA Government COVID-19 website](https://www.covid-19.sa.gov.au/)\n\n*   Call the SA COVID-19 Information Line on [1800 253 787](tel:1800253787) 9.00 am to 5.00 pm, 7 days\n\n*   Call the SA COVID-19 Mental Health Support Line on [1800 632 753](tel:1800632753) 8.00 am to 8.00 pm 7 days or visit the [Mental health support page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/mental+health+support).</t>
-  </si>
-  <si>
-    <t>How is a vaccine approved for use in Australia?</t>
-  </si>
-  <si>
-    <t>The COVID-19 vaccines being used in Australia have been approved by the [Australian Government’s Therapeutic Goods Administration (TGA) ](https://www.tga.gov.au/)and administered under the advice of the [COVID-19 Vaccine and Treatments for Australia – Science and Industry Technical Advisory Group](https://www.health.gov.au/committees-and-groups/the-covid-19-vaccines-and-treatments-for-australia-science-and-industry-technical-advisory-group) and the [Australian Technical Advisory Group on Immunisation (ATAGI).](https://www.health.gov.au/committees-and-groups/australian-technical-advisory-group-on-immunisation-atagi)\n\nBefore any vaccine is registered for use, it is tested extensively during development and then in thousands of people. Testing begins with laboratory research, then animal studies and finally human clinical trials. Clinical trials involve testing the vaccine in volunteers, and are conducted in phases.\n\nBefore any vaccine is approved for use in Australia, including a COVID-19 vaccine, it must pass the TGA’s rigorous assessment and approval processes. This includes assessment of its safety, quality and effectiveness.\n\nThe TGA is actively monitoring COVID-19 vaccine development both in Australia and around the world, and is also part of a network of international regulators that meet regularly to discuss the development of COVID-19 vaccines.\n\nThe TGA is engaging early with vaccine developers, undertaking a thorough and efficient review of vaccine candidates and discussing the application process. Early engagement will not affect the comprehensive review process that clinical trial results are subject to in Australia.</t>
-  </si>
-  <si>
     <t>Are the COVID-19 vaccines safe?</t>
   </si>
   <si>
-    <t>The COVID-19 vaccines are thoroughly tested for safety before they are approved for use in Australia. This includes careful analysis of clinical trial data, ingredients, chemistry, manufacturing and other factors.\n\nThe Therapeutic Goods Administration (TGA) will approve all COVID-19 vaccines being used in Australia to ensure that extremely high safety standards are met. The vaccines available do not use the live or whole virus that causes COVID-19.\n\nWith more than 300 million people vaccinated globally with these vaccines, real world data is now showing high effectiveness for both vaccines. We can be confident that both vaccines are safe and provide protection against serious illness and death from COVID-19.</t>
-  </si>
-  <si>
-    <t>Is anybody monitoring the safety of the vaccines in Australia?</t>
-  </si>
-  <si>
-    <t>In addition to providing approval for the COVID-19 vaccines to be used in Australia, the Therapeutic Goods Association (TGA) tests every batch of COVID-19 vaccines – checking how potent they are ensuring they have not been contaminated – before they are dispatched for delivery.\n\nVaccine recipients may also be followed up with an automated text message three days and then eight days after get the vaccine. You may be asked if you have had any side effects, and the information will contribute to AusVaxSafety’s national COVID-19 vaccine safety surveillance.\n\n[AusVaxSafety](https://www.ausvaxsafety.org.au/) is a world-leading national vaccine safety system, led by the National Centre for Immunisation Research and Surveillance.</t>
-  </si>
-  <si>
-    <t>How were the COVID-19 vaccines developed and approved in a short timeframe?</t>
-  </si>
-  <si>
-    <t>All available resources and efforts have been directed towards finding an effective vaccine, due to the urgency of protecting people from the COVID-19 virus. \n\nSome of the reasons behind this rapid progress include:\n\n*   Unprecedented levels of funding and collaboration between vaccine developers and governments around the world. Planning has been undertaken early, such as investing in manufacturing facilities before a vaccine is even available.\n\n*   Technology has evolved to make vaccine development faster than in the past. To develop a vaccine, scientists need to understand the virus’s genetic code. New technology has allowed researchers to quickly identify the genetic code of the COVID-19 virus, soon after the virus emerged. This allowed scientists around the world to start work in designing and building vaccines.\n\n*   Clinical trials progress more quickly if a disease is widespread, which is the case for COVID-19. This means researchers can evaluate the effect of a vaccine between the unvaccinated and vaccinated groups much sooner than for a rare disease.</t>
-  </si>
-  <si>
-    <t>Why were the COVID-19 vaccines available earlier overseas?</t>
-  </si>
-  <si>
-    <t>Some countries have used emergency use authorisation to roll the COVID-19 vaccine out more quickly. Emergency use authorisation is not a full approval of a vaccine. In countries facing significant COVID-19 outbreaks, the benefits of rolling out a vaccine before full regulatory assessment may outweigh the risk of waiting for a full analysis.\n\nDue to the proactive management of COVID-19 in Australia, we have been able to wait for the Therapeutic Goods Administration (TGA) to make an assessment through the provisional registration pathway. This allows the TGA to undertake its comprehensive regulatory assessment of the safety and effectiveness of vaccine candidates.</t>
-  </si>
-  <si>
-    <t>What was involved in COVID-19 vaccine trials?</t>
-  </si>
-  <si>
-    <t>Before any vaccine is registered for use, it is tested extensively during development and then in thousands of people. Testing begins with laboratory research, then animal studies and finally human clinical trials. Clinical trials involve testing the vaccine in volunteers, and are conducted in phases.\n\nClinical trials must provide scientific evidence which demonstrates that the benefits of a vaccine greatly outweigh any risks.\n\nThere are different types of clinical trials:\n\n*   Phase 1 clinical trials usually include a few dozen healthy adult volunteers. They focus primarily on establishing that the vaccine is safe, and on demonstrating that the vaccine induces an immune response.\n\n*   Phase 2 clinical trials have hundreds of volunteers, and can include specific groups the vaccine is intended for. These trials aim to test whether the vaccine causes an immune response and confirm that it is safe with minor side effects, such as a mild headache.\n\n*   Phase 3 clinical trials include many thousands of participants. They aim to test whether a vaccine is effective in preventing people from getting the disease – in this case COVID-19. Phase 3 trials also thoroughly assess the vaccine for safety and side effects. Researchers usually compare data between vaccinated people and those who received a placebo. They compare the frequency of infection, disease severity and any reported side effects between the two groups.\n\nFor COVID-19 vaccines, some of these phases have been combined. For example, in Phase 1 and 2 trials, results are analysed after the first few dozen volunteers are studied. The trial then proceeds in hundreds more people. Some Phase 3 studies have started once preliminary data from Phase 1 and 2 trials are available. Having these ‘overlapping’ timeframes has helped develop COVID-19 vaccines quickly, to make them available earlier to save lives.</t>
-  </si>
-  <si>
-    <t>Does priority access to the vaccine also mean that it is being trialled on me?</t>
-  </si>
-  <si>
-    <t>No. The vaccines have been through clinical trials and have been approved by the Therapeutic Goods Administration (TGA) for use in Australia through a rigorous assessment and approval processes. This includes assessment of their safety, quality and effectiveness.\n\nMillions of people across the world have now received at least one dose of a COVID-19 vaccine.</t>
-  </si>
-  <si>
-    <t>What checks are in place to ensure people receive the correct dosage of the COVID-19 vaccine?</t>
-  </si>
-  <si>
-    <t>The person vaccinating you will have completed COVID-19 vaccination training. In South Australia, two trained staff members check the dosage prior to vaccination as an additional safety measure.\n\nThe Australian Government partnered with the Australian College of Nursing to develop and deliver the accredited training modules. This will ensure vaccinators can safely manage and administer COVID-19 vaccines.\n\n##  More information\n\nPlease keep Triple Zero [(000)](tel:000) for [emergencies](https://www.sahealth.sa.gov.au/emergencydepartments) only.\n\n*   Find out information on [COVID-19 Vaccinations](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/vaccine/covid-19+vaccinations) \n\n*   For information in languages other than English, see our [Translated Resources page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/translated+covid-19+resources/translated+covid-19+resources)\n\n*   Read our [help and advice page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/help+and+advice) for support options\n\n*   Check out our [COVID-19 frequently asked questions](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/frequently+asked+questions/covid-19+frequently+asked+questions)\n\n*   Ask [Zoe, our COVID-19 virtual assistant](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/zoe+our+covid-19+virtual+assistant)\n\n*   Visit the [SA Government COVID-19 website](https://www.covid-19.sa.gov.au/)\n\n*   Call the SA COVID-19 Information Line on [1800 253 787](tel:1800253787) 9.00 am to 5.00 pm, 7 days\n\n*   Call the SA COVID-19 Mental Health Support Line on [1800 632 753](tel:1800632753) 8.00 am to 8.00 pm 7 days or visit the [Mental health support page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/mental+health+support).</t>
-  </si>
-  <si>
     <t>Why should I get vaccinated?</t>
   </si>
   <si>
@@ -247,212 +55,201 @@
     <t>Why does everyone need to get vaccinated?</t>
   </si>
   <si>
-    <t>The COVID-19 vaccinations reduce the community’s risk of COVID-19 outbreaks and will help to reduce symptoms and side-effects of COVID-19 if you are exposed.\n\nOnce you are vaccinated, you may still be able to catch or spread the virus, therefore everyone needs to get vaccinated and you cannot rely on others getting vaccinated to protect yourself.</t>
-  </si>
-  <si>
-    <t>Do I have to get a COVID-19 vaccine?</t>
-  </si>
-  <si>
-    <t>Getting vaccinated is not mandatory. However, we strongly encourage you to get vaccinated as COVID-19 can cause serious ongoing health conditions, and sometimes death. Vaccination is a safe and effective way of protecting you and your family.</t>
-  </si>
-  <si>
-    <t>When will the COVID-19 vaccine be available?</t>
-  </si>
-  <si>
-    <t>COVID-19 vaccines are being rolled out in South Australia now, commencing with Phase 1a.\n\nWe want to vaccinate South Australians against COVID-19 as quickly as possible. You can help by getting vaccinated when it’s your turn.</t>
-  </si>
-  <si>
-    <t>Are COVID-19 vaccines free?</t>
-  </si>
-  <si>
-    <t>The first and second doses of the COVID-19 vaccines will be free for all people living in Australia.</t>
-  </si>
-  <si>
-    <t>Is receiving a COVID-19 vaccine voluntary?</t>
-  </si>
-  <si>
-    <t>Receiving the COVID-19 vaccine is completely voluntary, however, it is strongly encouraged.</t>
-  </si>
-  <si>
-    <t>Which COVID-19 vaccines are available in South Australia?</t>
-  </si>
-  <si>
-    <t>The Pfizer/BioNTech COVID-19 vaccine will be used initially during the Phase 1a rollout. This vaccine has met the rigorous safety standards of the Therapeutic Goods Administration (TGA). This vaccine requires two doses, 21 days apart. Detailed information can be found on the [TGA website](https://www.tga.gov.au/media-release/tga-provisionally-approves-pfizer-covid-19-vaccine).\n\nThe AstraZeneca COVID-19 vaccine has also met the rigorous safety standards of the TGA. This vaccine requires two doses, with the second dose recommended to be administered 12 weeks after the first. Detailed information can be found on the [TGA website](https://www.tga.gov.au/media-release/tga-provisionally-approves-astrazenecas-covid-19-vaccine).\n\nThe Australian Government has secured doses of other COVID-19 vaccines, including those produced Novavax, which are still subject to TGA approvals and The Australian Technical Advisory Group on Immunisation (ATAGI) advice. More information can be found on the [Department of Health website](https://www.health.gov.au/node/18777/australias-vaccine-agreements).</t>
-  </si>
-  <si>
     <t>Do I get to choose what type of vaccine I get?</t>
   </si>
   <si>
     <t>You will receive the vaccine available at the time and location of your appointment. The vaccine you receive may also be determined by your health, age or occupation (if your occupation puts you at a higher risk of exposure to COVID-19).</t>
   </si>
   <si>
-    <t>How will I know when it’s my turn to get vaccinated?</t>
-  </si>
-  <si>
-    <t>Information will be provided to priority groups and the wider South Australian community when the vaccine becomes available to each group. This information may come from the Commonwealth or from SA Health.</t>
-  </si>
-  <si>
-    <t>Where can I get the COVID-19 vaccine in South Australia?</t>
-  </si>
-  <si>
-    <t>There will be both metropolitan and regional hubs set up across South Australia to ensure priority groups can access the vaccine at the allocated time. Further information regarding locations of these sites and any additional sites will be provided as soon as possible.</t>
-  </si>
-  <si>
-    <t>Who will be administering my vaccine? Have they had training?</t>
-  </si>
-  <si>
-    <t>Depending on which phase of the roll out you’re in, you could get your COVID-19 vaccine from a doctor, nurse, pharmacist or other health care worker.\n\nThe person vaccinating you will be required to complete COVID-19 vaccination training. This will ensure they can safely manage and administer COVID-19 vaccines.\n\nThe training is available now for all authorised COVID-19 vaccination providers. \n\nThis will include:\n\n*   health professionals in hospitals\n\n*   general practices\n\n*   state and Commonwealth vaccination clinics\n\n*   Aboriginal Community Controlled Health Organisations\n\n*   pharmacies.</t>
-  </si>
-  <si>
     <t>What is the timing between the two vaccinations?</t>
   </si>
   <si>
-    <t>When you get your first dose of the vaccine, you will be asked to make your appointment to get your second dose. Depending on the vaccine you are given, the second dose will be administered either 21 days or 12 weeks after your first dose.</t>
-  </si>
-  <si>
     <t>Can I get the COVID-19 vaccine and the flu vaccine at the same time?</t>
   </si>
   <si>
-    <t>The recommended minimum interval between a dose of seasonal flu vaccine and a dose of either of the currently approved COVID-19 vaccines is 14 days either side of the flu vaccine. Speak to your GP for more information.</t>
-  </si>
-  <si>
-    <t>Can I bring someone to my vaccination appointment with me?</t>
-  </si>
-  <si>
-    <t>You can have someone attend your vaccination appointment for support. This can be a support worker, family member, carer or friend.</t>
-  </si>
-  <si>
-    <t>If consent is given in advance, can it be withdrawn on the day of the vaccine?</t>
-  </si>
-  <si>
-    <t>Yes, receiving the COVID-19 vaccine is completely voluntary and consent can be withdrawn at any time prior to receiving the first or second dose of the vaccine.</t>
-  </si>
-  <si>
-    <t>I’ve heard one of the vaccines is stored at -70°c. Is it that cold when it’s injected?</t>
-  </si>
-  <si>
-    <t>The Pfizer vaccine is stored at -70 degrees and defrosted prior to usage.</t>
-  </si>
-  <si>
-    <t>What if I feel unwell after my vaccine?</t>
-  </si>
-  <si>
-    <t>The Australian Immunisation Handbook, developed by The Australian Technical Advisory Group on Immunisation (ATAGI), provides clinical guidelines for healthcare professionals and others about using vaccines safely and effectively.\n\nThe Handbook recommends that:\n\n*   all vaccine recipients be observed for at least 15 minutes after they have been vaccinated, to ensure that they do not experience an immediate adverse event, and to provide rapid medical care if needed.\n\n*   people with a history of anaphylaxis to non-vaccine antigens (e.g. food, insect stings, medicines) should be observed for 30 minutes following administration of a COVID-19 vaccine dose.</t>
-  </si>
-  <si>
-    <t>Will I be contacted after my appointment?</t>
-  </si>
-  <si>
-    <t>Vaccine recipients may be followed up with an automated text message three days and then eight days after get the vaccine. You will be asked if you have had any side effects, and the information will contribute to AusVaxSafety’s national COVID-19 vaccine safety surveillance.\n\n[AusVaxSafety](https://www.ausvaxsafety.org.au/) is a world-leading national vaccine safety system, led by the National Centre for Immunisation Research and Surveillance.</t>
-  </si>
-  <si>
     <t>Will I get a record of my vaccination?</t>
   </si>
   <si>
-    <t>If you receive your COVID-19 vaccination in South Australia, you will be given an official hard copy record of your vaccination. Your vaccination information will be recorded on the Australian Immunisation Register.\n\nAustralians can access their immunisation history statement through Medicare for proof of vaccination, both digitally and in hard copy, if required.\n\n##  More information\n\nPlease keep Triple Zero [(000)](tel:000) for [emergencies](https://www.sahealth.sa.gov.au/emergencydepartments) only.\n\n*   Find out information on [COVID-19 Vaccinations](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/vaccine/covid-19+vaccinations) \n\n*   For information in languages other than English, see our [Translated Resources page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/translated+covid-19+resources/translated+covid-19+resources)\n\n*   Read our [help and advice page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/help+and+advice) for support options\n\n*   Check out our [COVID-19 frequently asked questions](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/frequently+asked+questions/covid-19+frequently+asked+questions)\n\n*   Ask [Zoe, our COVID-19 virtual assistant](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/zoe+our+covid-19+virtual+assistant)\n\n*   Visit the [SA Government COVID-19 website](https://www.covid-19.sa.gov.au/)\n\n*   Call the SA COVID-19 Information Line on [1800 253 787](tel:1800253787) 9.00 am to 5.00 pm, 7 days\n\n*   Call the SA COVID-19 Mental Health Support Line on [1800 632 753](tel:1800632753) 8.00 am to 8.00 pm 7 days or visit the [Mental health support page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/mental+health+support).</t>
-  </si>
-  <si>
-    <t>Where to get tested</t>
-  </si>
-  <si>
-    <t>Find all COVID-19 testing [clinic locations](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres) in South Australia.</t>
-  </si>
-  <si>
-    <t>Who can get tested</t>
-  </si>
-  <si>
-    <t>People who have any of the symptoms below, even if mild, should get tested for COVID-19 as soon as symptoms appear: \n\n*   fever or chills\n\n*   cough\n\n*   sore throat\n\n*   runny nose\n\n*   shortness of breath\n\n*   loss of taste or smell\n\n*   diarrhoea and vomiting \n\nCall [000](tel:000) (Triple Zero) in an emergency, such as difficulty breathing or chest pain.</t>
-  </si>
-  <si>
-    <t>Testing options - Testing for COVID-19</t>
-  </si>
-  <si>
-    <t>There are many options to get tested for COVID-19 in South Australia. Some require a booking and others are walk-in. Some require a referral and some do not. \n\nIf you are unsure what to do, call SA COVID Information Line on 1800 253 787 . \n\nSee below a range of options to get tested:</t>
-  </si>
-  <si>
-    <t>What to do after your test</t>
-  </si>
-  <si>
-    <t>After your test, go straight home and [self-isolate](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/self-isolation+and+quarantine+advice+for+covid-19+%28coronavirus%29) while you wait for your test result (which you should usually get within 2 days) and:\n\n*   stay at home and do not attend work, school or childcare\n\n*   wash your hands often with soap and water\n\n*   cough and sneeze into a clean tissue or your elbow\n\n*   avoid close contact with others, including members of your household.</t>
-  </si>
-  <si>
-    <t>If you have a negative test result</t>
-  </si>
-  <si>
-    <t>If you receive a negative test result, you should still stay at home and not attend work, school or childcare until you are feeling well again.\n\nPeople in [self-isolation](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/self-isolation+and+quarantine+advice+for+covid-19+%28coronavirus%29) or self-quarantine will need to remain at their place of quarantine for the prescribed period even if they return a negative test result.</t>
-  </si>
-  <si>
-    <t>If you have a positive test result</t>
-  </si>
-  <si>
-    <t>It is important that you follow medical advice.\n\nIf your result is positive you will be contacted directly by SA Health. \n\nIf you have received a positive result for COVID-19, visit the [Information about a positive result for COVID-19 page](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/information+about+a+positive+result+for+covid-19) for information about what to do.</t>
-  </si>
-  <si>
-    <t>Cost of COVID-19 tests</t>
-  </si>
-  <si>
-    <t>There is no cost to Medicare eligible patients for COVID-19 testing if you are tested at [SA Health or Primary Health Network (PHN) facilities](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres).\n\nPrivate providers may charge a gap for COVID-19 testing.\n\nOverseas residents who fall ill in Australia (and are not eligible for Medicare) often have health or travel insurance. For those who do not have adequate insurance coverage, SA Health [hospitals](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/services/hospitals/hospitals) and [COVID-19 testing centres](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres) will waive the costs of diagnosis (tests) and treatment of coronavirus (COVID-19).</t>
-  </si>
-  <si>
-    <t>Translated and Easy Read resources</t>
-  </si>
-  <si>
-    <t>For testing information in languages other than English, see our [Translated Resources](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/about+covid-19/help+and+advice/translated+covid-19+resources/translated+covid-19+resources) page. \n\nFor Easy Read resources, see the Australian Government Department of Health [COVID-19 Easy Read resources](https://www.health.gov.au/resources/collections/coronavirus-covid-19-easy-read-resources) page.</t>
-  </si>
-  <si>
-    <t>More information - Testing for COVID-19</t>
-  </si>
-  <si>
-    <t>Please keep Triple Zero [(000)](tel:000) for [emergencies](https://www.sahealth.sa.gov.au/emergencydepartments) only.</t>
-  </si>
-  <si>
-    <t>General Practitioner (GP)</t>
-  </si>
-  <si>
-    <t>Contact your GP about getting tested for COVID-19. If you qualify for a test your GP may test you in their clinic, they may come outside to take a swab test while you remain in your car, or they may provide you with a referral to attend a [drive-through testing clinic](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres).</t>
-  </si>
-  <si>
-    <t>Drive-through testing - Testing options</t>
-  </si>
-  <si>
-    <t>You may need a referral from your GP to attend a [drive-through testing clinic](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres). If you have a referral, you can book with [SA Pathology](https://www.sapathology.sa.gov.au/wps/wcm/connect/SA+Pathology+Internet+Content+New/Content/Clinicians/Coronavirus+Information/SA+Pathology+COVID-19+Collection+Clinics), [Clinpath](https://www.onlinepatientbookings.com.au/chooseatest/#covid-19) or [Australian Clinical Labs](https://www.clinicallabs.com.au/about-us/doctor-media-releases/novel-coronavirus-sa-and-ntg/?/) directly.</t>
-  </si>
-  <si>
-    <t>COVID-19 clinics - Testing options</t>
-  </si>
-  <si>
-    <t>People with COVID-19 symptoms can visit a dedicated [COVID-19 clinic](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres) or SA Health drive-through testing clinic to be assessed and tested. You do not need a referral or an appointment.</t>
-  </si>
-  <si>
-    <t>Respiratory Clinics - Testing options</t>
-  </si>
-  <si>
-    <t>[Respiratory Clinics](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres) are available for anyone with respiratory conditions. Free. All ages. Bookings essential. They do not test people without symptoms (e.g. people arrived from interstate with no symptoms who are required to get tested). Clinics are Commonwealth funded and supported by Adelaide PHN and Country SA PHN.</t>
-  </si>
-  <si>
-    <t>Home-based testing - Testing options</t>
-  </si>
-  <si>
-    <t>SA Pathology offers a dedicated metropolitan [service](https://www.sahealth.sa.gov.au/wps/wcm/connect/public+content/sa+health+internet/conditions/infectious+diseases/covid-19/testing+and+tracing/covid-19+clinics+and+testing+centres/covid-19+clinics+and+testing+centres) to take COVID-19 tests within a persons’ home. Some regional home-based testing services are also available.</t>
-  </si>
-  <si>
-    <t>Aboriginal Community Controlled Health Services testing</t>
-  </si>
-  <si>
-    <t>If you would like to know more about COVID-19, or feel that you have some symptoms, please call your local [SA Aboriginal Community Controlled Health Service (PDF 696KB)](https://ahcsa.org.au/app/uploads/2020/04/SA-Aboriginal-Community-Controlled-Health-Services-testing-for-COVID-19.pdf).</t>
-  </si>
-  <si>
-    <t>How much does the vaccines cost?</t>
-  </si>
-  <si>
-    <t>Do I need to Pay for vaccines?</t>
+    <t>Where are the latest cluster locations and what should I do?</t>
+  </si>
+  <si>
+    <t>Locations related to confirmed cases of COVID-19 requiring public action are published on our contact tracing page. If you were present at any of the locations at the times indicated, please follow the health advice provided.</t>
+  </si>
+  <si>
+    <t>Should I get tested?</t>
+  </si>
+  <si>
+    <t>Anyone in South Australia with symptoms of COVID-19 can be tested.</t>
+  </si>
+  <si>
+    <t>Do I need to quarantine?</t>
+  </si>
+  <si>
+    <t>I'm having difficulty breathing</t>
+  </si>
+  <si>
+    <t>If you're experiencing severe illness, for example having difficulty breathing, call 000.</t>
+  </si>
+  <si>
+    <t>It is important you find out about the COVID-19 restrictions and conditions such as High Community Transmission Zones (hotspots) for the place you are travelling to. You should do this before booking or leaving your home.</t>
+  </si>
+  <si>
+    <t>I have a travel question</t>
+  </si>
+  <si>
+    <t>How do I get a travel exemption to enter South Australia?</t>
+  </si>
+  <si>
+    <t>All travellers wishing to enter South Australia, including returning South Australian residents, must complete a Cross Border Travel Registration with SA Police. Some essential travellers seeking to enter SA from Prohibited Locations for medical or compassionate reasons will require written approval from SA Health before submitting a Cross Border Travel Registration to SA Police. See the essential traveller health exemption page for exemption criteria and the application form link.</t>
+  </si>
+  <si>
+    <t>I want to travel or return to South Australia</t>
+  </si>
+  <si>
+    <t>We strongly discourage anyone from COVID-19 affected areas from travelling to South Australia. If you are travelling to South Australia from within Australia, it is important that you are up to date with the latest South Australian travel advice and Public Health Directions. All travellers wishing to enter South Australia must complete a Cross Border Travel Registration with SA Police, including returning South Australian residents. All travellers coming to South Australia from overseas are placed in hotel quarantine for 14 days.</t>
+  </si>
+  <si>
+    <t>I want to travel interstate, what are the border restrictions?</t>
+  </si>
+  <si>
+    <t>Travel to High Community Transmission Zones (hotspots) and prohibited locations should be avoided. Check the government COVID-19 travel restrictions website of the state or territory you're visiting for regular updates, and don’t forget to check for changes to South Australia’s travel restrictions which may affect your ability to return. Returning SA residents must complete a Cross Border Travel Registration with SA Police. See the SA COVID-19 website travel advice page for links to interstate travel restriction information.</t>
+  </si>
+  <si>
+    <t>How do I know if I need to get tested or quarantine in SA?</t>
+  </si>
+  <si>
+    <t>I have a vaccination question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making safe and effective COVID-19 vaccines available to all South Australians is a key priority for SA Health. </t>
+  </si>
+  <si>
+    <t>Can I get the COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>South Australians are being vaccinated now. Access to vaccines during the early period of the rollout will be made available to those who are most vulnerable to the effects of COVID-19 or who have the highest risk of being exposed to, or spreading, the virus. Getting a COVID-19 vaccine is free and voluntary. For more information, visit our COVID-19 vaccinations page.</t>
+  </si>
+  <si>
+    <t>How much does it cost?</t>
+  </si>
+  <si>
+    <t>Getting a COVID-19 vaccine is free and voluntary. For more information, visit our COVID-19 vaccinations page.</t>
+  </si>
+  <si>
+    <t>The COVID-19 vaccinations reduce the community’s risk of COVID-19 outbreaks and will help to reduce symptoms and side-effects of COVID-19 if you are exposed. Once you are vaccinated, you may still be able to catch or spread the virus, therefore everyone needs to get vaccinated and you cannot rely on others getting vaccinated to protect yourself.</t>
+  </si>
+  <si>
+    <t>The COVID-19 vaccine is being rolled out in phases across South Australia to ensure priority groups can access the vaccine. For more information about who can get the vaccine in each phase, visit our South Australia’s rollout plan page.</t>
+  </si>
+  <si>
+    <t>The COVID-19 vaccines work by preparing the body to defend itself against COVID-19. Once vaccinated, if a person comes into contact with COVID-19, their immune system will recognise it and be ready to defend the body against it having already been exposed to the vaccine. For more information see our FAQs page about the COVID-19 vaccines.</t>
+  </si>
+  <si>
+    <t>Before any vaccine is approved for use in Australia, including a COVID-19 vaccine, it must pass the Therapeutic Goods Administration’s (TGA) rigorous assessment and approval processes. This includes assessment of its safety, quality and effectiveness. The TGA will approve all COVID-19 vaccines being used in Australia to ensure that safety standards are met. The vaccines available do not use the live or whole virus that causes COVID-19.</t>
+  </si>
+  <si>
+    <t>No, the vaccines available do not use the live or whole virus that causes COVID-19.</t>
+  </si>
+  <si>
+    <t>Vaccines, like any other medication or natural therapy, can have reactions or side effects. The extent and severity of side effects of the COVID-19 vaccines are similar to those from other vaccines. You may experience minor reactions or side effects following vaccination. Most reactions or side effects last no more than a couple of days and do not require special treatment. Serious reactions like allergic reactions are extremely rare.</t>
+  </si>
+  <si>
+    <t>What are some common reactions?</t>
+  </si>
+  <si>
+    <t>What if I experience worse symptoms?</t>
+  </si>
+  <si>
+    <t>When can I get vaccinated?</t>
+  </si>
+  <si>
+    <t>Where and how can I book a COVID-19 vaccination appointment?</t>
+  </si>
+  <si>
+    <t>There will be both metropolitan and regional hubs set up across South Australia to ensure priority groups can access the vaccine at the allocated time. A list of vaccination clinics and booking options will be displayed by the COVID-19 vaccine eligibility checker if you meet the eligibility criteria for the current phase of the vaccine rollout.</t>
+  </si>
+  <si>
+    <t>How do I make a booking?</t>
+  </si>
+  <si>
+    <t>Booking methods vary between clinics and appointments may be offered online or by telephone only. If you cannot get an appointment, check back as more clinics and appointments will become available over the coming weeks. To find out which phase of the rollout you'll be in and if you can book a COVID-19 vaccination yet, visit the COVID-19 vaccine eligibility checker or call the National COVID-19 Vaccine Information Line on 1800 020 080.</t>
+  </si>
+  <si>
+    <t>Do I need a referral from my doctor to be vaccinated for COVID-19?</t>
+  </si>
+  <si>
+    <t>You do not need a doctor's referral to be vaccinated if you meet the eligibility criteria. A doctor's referral can be used to provide evidence that you have an eligible underlying medical condition. To find out which phase of the rollout you'll be in and if you can book a COVID-19 vaccination yet, visit the COVID-19 vaccine eligibility checker or call the National COVID-19 Vaccine Information Line on 1800 020 080.</t>
+  </si>
+  <si>
+    <t>What is an eligible underlying medical condition?</t>
+  </si>
+  <si>
+    <t>How can I prove that I have an eligible underlying medical condition?</t>
+  </si>
+  <si>
+    <t>Evidence of an eligible underlying medical condition can include:
+• Your regular GP clinic's records
+• A My Health Record
+• A referral from a treating GP or specialist
+• Other medical records including medical history printouts, a chronic disease care plan, a hospital discharge summary or a valid script for medication prescribed for one of the relevant conditions.</t>
+  </si>
+  <si>
+    <t>If you receive your COVID-19 vaccination in South Australia, you will be given an official hard copy record of your vaccination. Your vaccination information will be recorded on the Australian Immunisation Register. Australians can access their immunisation history statement through Medicare for proof of vaccination, both digitally and in hard copy, if required.</t>
+  </si>
+  <si>
+    <t>The recommended minimum interval between a dose of seasonal flu vaccine and a dose of either of the currently approved COVID-19 vaccines (Pfizer/BioNTech and AstraZeneca) is 14 days either side of the flu vaccine. Speak to your GP for more information.</t>
+  </si>
+  <si>
+    <t>Is asthma part of the phase 1b rollout?</t>
+  </si>
+  <si>
+    <t>Phase 1b does not include people living with mild or moderate asthma. You should speak to your GP about your asthma management plan and when you should be vaccinated.</t>
+  </si>
+  <si>
+    <t>Should I get vaccinated if I am pregnant?</t>
+  </si>
+  <si>
+    <t>Currently in Australia we do not routinely recommend COVID-19 vaccination for pregnant women. You and your health professional should consider whether the potential benefits of vaccination outweigh any potential risks.</t>
+  </si>
+  <si>
+    <t>Should I get vaccinated if I am breastfeeding?</t>
+  </si>
+  <si>
+    <t>If you are breastfeeding, you can receive the COVID-19 vaccine at any time. You do not need to stop breastfeeding before or after vaccination.</t>
+  </si>
+  <si>
+    <t>Should I get vaccinated if I am planning pregnancy?</t>
+  </si>
+  <si>
+    <t>If you are planning a pregnancy, you can receive the COVID-19 vaccine. You do not need to avoid becoming pregnant before or after vaccination. You are not required to have a pregnancy test before getting vaccinated.</t>
+  </si>
+  <si>
+    <t>I don't have a Medicare card, can I still get a COVID-19 vaccine?</t>
+  </si>
+  <si>
+    <t>When you get your first dose of the vaccine, you will be asked to make your appointment to get your second dose. Depending on which vaccine you are given, the second dose will be administered either 21 days or 12 weeks after your first dose.</t>
+  </si>
+  <si>
+    <t>Common reactions to the COVID-19 vaccine include: • tenderness, pain, and swelling at the injection site • tiredness • headache • muscle and joint pain • chills or fever.</t>
+  </si>
+  <si>
+    <t>See your doctor or health care professional as soon as possible or go directly to a hospital if: • you have a reaction that you consider severe or unexpected • you are concerned about your condition after vaccination. Always call triple zero (000) in an emergency.</t>
+  </si>
+  <si>
+    <t>Eligible underlying medical conditions include: • Cancers and haematological diseases, currently or in the past • Transplant recipients  • Chronic inflammatory conditions 
+• Immunodeficiency conditions 
+• Chronic kidney, liver, lung or neurological conditions or diabetes
+• Severe obesity 
+• Heart disease and blood pressure disorders
+• Those living with significant disability requiring frequent assistance with activities of daily living
+• Severe mental health conditions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -586,6 +383,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="33">
@@ -929,8 +731,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1286,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1308,178 +1114,178 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1487,391 +1293,119 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
